--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A2B11A-3441-4311-AEAE-4BA47CAF9BF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E0224-A59C-4CCF-851F-6C1F328A5424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Feature Name</t>
   </si>
@@ -89,16 +89,37 @@
     <t>Level Generation</t>
   </si>
   <si>
-    <t>Player Upgrades</t>
-  </si>
-  <si>
     <t>Stelios</t>
   </si>
   <si>
     <t>Mixalis</t>
   </si>
   <si>
-    <t>Mixalis &amp; Stelios</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Upgrade System</t>
+  </si>
+  <si>
+    <t>Feature Category</t>
+  </si>
+  <si>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Systems</t>
+  </si>
+  <si>
+    <t>Menus</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Sounds</t>
+  </si>
+  <si>
+    <t>Advertizing</t>
   </si>
 </sst>
 </file>
@@ -137,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -200,11 +221,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -222,13 +342,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -538,247 +693,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="30.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.875" style="6" customWidth="1"/>
+    <col min="1" max="2" width="22" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="30.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="6" t="b">
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5">
+    <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
+    </row>
+    <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8"/>
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5">
+      <c r="C6" s="5">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="10">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="E7" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="5">
+      <c r="F9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="5">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3</v>
-      </c>
-      <c r="E10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="F10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="F13" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="5:5" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,7 +1033,20 @@
     <row r="87" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F2:F61">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E0224-A59C-4CCF-851F-6C1F328A5424}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67113878-C651-4676-9CDA-A94E9591FC1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Feature Name</t>
   </si>
@@ -344,31 +344,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -729,27 +729,27 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="11" t="b">
+      <c r="F2" s="9" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -767,7 +767,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
@@ -813,42 +813,45 @@
       <c r="D6" s="5">
         <v>2</v>
       </c>
+      <c r="E6" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>3</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15" t="b">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11" t="b">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -860,7 +863,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
@@ -872,93 +875,112 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15" t="b">
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11" t="b">
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="C13" s="5">
+        <v>3</v>
+      </c>
       <c r="F13" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15" t="b">
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="11" t="b">
+      <c r="C15" s="8">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
       <c r="F16" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
       <c r="F17" s="6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15" t="b">
+      <c r="C18" s="11">
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67113878-C651-4676-9CDA-A94E9591FC1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B61C4-8D65-47D4-B850-AC0634839632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Feature Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Textures</t>
   </si>
   <si>
-    <t>Level Generation</t>
-  </si>
-  <si>
     <t>Stelios</t>
   </si>
   <si>
@@ -120,13 +117,16 @@
   </si>
   <si>
     <t>Advertizing</t>
+  </si>
+  <si>
+    <t>Random Level Generation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +137,15 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -324,17 +332,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -344,18 +343,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,12 +363,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -385,6 +420,15 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8585"/>
+      <color rgb="FFACD292"/>
+      <color rgb="FF97C777"/>
+      <color rgb="FFFF7D7D"/>
+      <color rgb="FF8A0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -695,292 +739,307 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="30.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="58.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="9" t="b">
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="b">
+      <c r="F16" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="F17" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6">
         <v>2</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="11">
-        <v>3</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="8">
-        <v>3</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5">
-        <v>3</v>
-      </c>
-      <c r="F9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5">
-        <v>3</v>
-      </c>
-      <c r="F10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11">
-        <v>3</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="8">
-        <v>3</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="5">
-        <v>3</v>
-      </c>
-      <c r="F13" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="8">
-        <v>3</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="11">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12" t="b">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1065,8 +1124,23 @@
     <mergeCell ref="A15:A18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F61">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C18">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="5"/>
+        <color rgb="FFACD292"/>
+        <color rgb="FFFF7D7D"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324B61C4-8D65-47D4-B850-AC0634839632}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC180FBA-A4F3-4035-879F-823293D4B571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Feature Name</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Damage Implementation</t>
   </si>
   <si>
-    <t>Winning</t>
-  </si>
-  <si>
-    <t>Losing</t>
-  </si>
-  <si>
     <t>Coin System</t>
   </si>
   <si>
@@ -120,6 +114,18 @@
   </si>
   <si>
     <t>Random Level Generation</t>
+  </si>
+  <si>
+    <t>Mixalis &amp; Stelios</t>
+  </si>
+  <si>
+    <t>Winning System &amp; Menu</t>
+  </si>
+  <si>
+    <t>Losing System &amp; Menu</t>
+  </si>
+  <si>
+    <t>In App Purchases</t>
   </si>
 </sst>
 </file>
@@ -355,15 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -384,30 +381,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -737,10 +729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:F91"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -754,185 +746,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="58.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15" t="s">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="16"/>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="6">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>11</v>
+      <c r="A8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="12" t="s">
-        <v>12</v>
+      <c r="A9" s="16"/>
+      <c r="B9" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="12" t="s">
-        <v>13</v>
+      <c r="A10" s="16"/>
+      <c r="B10" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3</v>
-      </c>
-      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="6">
         <v>3</v>
@@ -944,29 +940,25 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>14</v>
+      <c r="A12" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
-      <c r="D12" s="4">
-        <v>4</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="12" t="s">
-        <v>15</v>
+      <c r="A13" s="16"/>
+      <c r="B13" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -976,9 +968,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="13" t="s">
-        <v>16</v>
+      <c r="A14" s="17"/>
+      <c r="B14" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -990,11 +982,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>17</v>
+      <c r="A15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
@@ -1006,9 +998,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
-      <c r="B16" s="12" t="s">
-        <v>27</v>
+      <c r="A16" s="16"/>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1018,9 +1010,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="12" t="s">
-        <v>28</v>
+      <c r="A17" s="16"/>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1029,21 +1021,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6">
+    <row r="18" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6">
         <v>2</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1116,19 +1119,20 @@
     <row r="89" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A15:A19"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F61">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="F2:F62">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C18">
+  <conditionalFormatting sqref="C2:C19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1138,8 +1142,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC180FBA-A4F3-4035-879F-823293D4B571}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816D868-72A1-41F7-8B26-5D4991303268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
+    <workbookView xWindow="7023" yWindow="1467" windowWidth="26083" windowHeight="13925" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Feature Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Settings Menu</t>
   </si>
   <si>
-    <t>Textures</t>
-  </si>
-  <si>
     <t>Stelios</t>
   </si>
   <si>
@@ -126,6 +123,24 @@
   </si>
   <si>
     <t>In App Purchases</t>
+  </si>
+  <si>
+    <t>Saving and Loading Progress</t>
+  </si>
+  <si>
+    <t>Particle System</t>
+  </si>
+  <si>
+    <t>Smoother Gameplay</t>
+  </si>
+  <si>
+    <t>PowerUps &amp; Abilities</t>
+  </si>
+  <si>
+    <t>Unlockable Skins</t>
+  </si>
+  <si>
+    <t>More Textures</t>
   </si>
 </sst>
 </file>
@@ -729,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -747,7 +762,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="58.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -767,19 +782,19 @@
     </row>
     <row r="2" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="b">
         <v>1</v>
@@ -791,13 +806,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="b">
         <v>1</v>
@@ -809,13 +824,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="b">
         <v>1</v>
@@ -827,13 +842,13 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3" t="b">
         <v>1</v>
@@ -845,13 +860,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
@@ -863,13 +878,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="b">
         <v>1</v>
@@ -877,10 +892,10 @@
     </row>
     <row r="8" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4">
         <v>3</v>
@@ -889,7 +904,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="b">
         <v>0</v>
@@ -898,7 +913,7 @@
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -907,7 +922,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
@@ -925,97 +940,97 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="6">
+    <row r="11" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2">
         <v>3</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="F11" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="B16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="b">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="b">
         <v>0</v>
@@ -1024,34 +1039,89 @@
     <row r="18" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2">
         <v>1</v>
       </c>
-      <c r="F18" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F23" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
     <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,19 +1190,24 @@
     <row r="90" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="92" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F62">
+  <conditionalFormatting sqref="F2:F67">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C19">
+  <conditionalFormatting sqref="C2:C24">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1142,7 +1217,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F19">
+  <conditionalFormatting sqref="F2:F24">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816D868-72A1-41F7-8B26-5D4991303268}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBEBD2-2A57-42CE-A196-AC2E6E5AF320}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7023" yWindow="1467" windowWidth="26083" windowHeight="13925" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
   <si>
     <t>Feature Name</t>
   </si>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>More Textures</t>
+  </si>
+  <si>
+    <t>Score System</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
   </si>
 </sst>
 </file>
@@ -410,7 +416,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8585"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -744,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -901,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>16</v>
@@ -919,7 +946,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
@@ -931,139 +958,180 @@
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="F10" s="3" t="b">
-        <v>0</v>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="10" t="s">
+    <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>3</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7" t="b">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="14" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="b">
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2">
+    <row r="16" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="b">
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>3</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="b">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="b">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1075,7 +1143,7 @@
     <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1087,10 +1155,10 @@
     <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="b">
         <v>0</v>
@@ -1099,30 +1167,47 @@
     <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="b">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10" t="s">
+    <row r="25" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C25" s="6">
         <v>3</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="7" t="b">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1195,20 +1280,21 @@
     <row r="95" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A25"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F67">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="F2:F68">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C24">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="C2:C25">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
         <cfvo type="num" val="5"/>
@@ -1217,9 +1303,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F25">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEBEBD2-2A57-42CE-A196-AC2E6E5AF320}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3239F4C-D2EA-4BFB-9AC2-DDCABB1CDB1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Feature Name</t>
   </si>
@@ -416,21 +416,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8585"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -773,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -931,7 +917,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="b">
         <v>0</v>
@@ -984,8 +970,11 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="F11" s="3" t="b">
-        <v>0</v>
+      <c r="E11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1000,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="b">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1055,7 +1044,7 @@
         <v>16</v>
       </c>
       <c r="F15" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1200,12 +1189,14 @@
         <v>26</v>
       </c>
       <c r="C25" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7" t="b">
-        <v>0</v>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1289,7 +1280,7 @@
     <mergeCell ref="A17:A25"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F68">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1304,10 +1295,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3239F4C-D2EA-4BFB-9AC2-DDCABB1CDB1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60742CA6-71DA-4547-AD92-2F0558044465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
   <si>
     <t>Feature Name</t>
   </si>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -910,17 +910,17 @@
       <c r="B8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>2</v>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -928,17 +928,17 @@
       <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,17 +946,17 @@
       <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,17 +964,17 @@
       <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>38</v>
+      <c r="F11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,10 +1001,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="6">
-        <v>3</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F13" s="7" t="b">
         <v>0</v>
       </c>
@@ -1034,11 +1038,11 @@
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="2">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2">
-        <v>3</v>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>16</v>
@@ -1056,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>16</v>
@@ -1090,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>16</v>
@@ -1108,7 +1112,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>16</v>
@@ -1135,7 +1139,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
@@ -1188,15 +1192,15 @@
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="6">
-        <v>5</v>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>38</v>
+      <c r="F25" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60742CA6-71DA-4547-AD92-2F0558044465}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC06197-3D04-4B67-A176-91228B98376F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -759,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC06197-3D04-4B67-A176-91228B98376F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F672C-9CA0-45B8-A50C-016D324E8A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Feature Name</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Menus</t>
   </si>
   <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>Sounds</t>
   </si>
   <si>
@@ -140,13 +137,13 @@
     <t>Unlockable Skins</t>
   </si>
   <si>
-    <t>More Textures</t>
-  </si>
-  <si>
     <t>Score System</t>
   </si>
   <si>
     <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>Misc</t>
   </si>
 </sst>
 </file>
@@ -420,14 +417,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor rgb="FFFF8585"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF8585"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -757,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -879,7 +876,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
@@ -908,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -926,7 +923,7 @@
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -944,7 +941,7 @@
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -980,7 +977,7 @@
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -992,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1059,36 +1056,36 @@
       <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="6">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -1100,34 +1097,28 @@
         <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>38</v>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="3" t="b">
         <v>0</v>
@@ -1139,7 +1130,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
@@ -1148,61 +1139,50 @@
     <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F22" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2">
-        <v>5</v>
-      </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+    <row r="24" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
+      <c r="F24" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1275,20 +1255,19 @@
     <row r="95" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A17:A24"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F68">
+  <conditionalFormatting sqref="F2:F67">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="C2:C24">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1298,12 +1277,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F25">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="F2:F24">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"IN PROGRESS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"IN PROGRESS"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82F672C-9CA0-45B8-A50C-016D324E8A06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFBA69-B819-46DC-9E3A-7ADCEE1A0FA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34777" windowHeight="18869" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
   <si>
     <t>Feature Name</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>Misc</t>
+  </si>
+  <si>
+    <t>Lights System</t>
+  </si>
+  <si>
+    <t>Optimization Updates</t>
   </si>
 </sst>
 </file>
@@ -754,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
-  <dimension ref="A1:F97"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -980,13 +986,13 @@
         <v>33</v>
       </c>
       <c r="C12" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>36</v>
@@ -1006,8 +1012,8 @@
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="b">
-        <v>0</v>
+      <c r="F13" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -1017,8 +1023,8 @@
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
-        <v>4</v>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>17</v>
@@ -1056,8 +1062,12 @@
       <c r="C16" s="6">
         <v>2</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6">
+        <v>3</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="F16" s="7" t="b">
         <v>0</v>
       </c>
@@ -1070,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
@@ -1088,7 +1098,7 @@
         <v>31</v>
       </c>
       <c r="C18" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2">
         <v>2</v>
@@ -1127,10 +1137,16 @@
     <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
@@ -1139,51 +1155,79 @@
     <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
       </c>
       <c r="F22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3" t="b">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="10" t="s">
+    <row r="26" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
     <row r="27" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,19 +1299,21 @@
     <row r="95" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="96" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="20.05" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="A17:A26"/>
   </mergeCells>
-  <conditionalFormatting sqref="F2:F67">
+  <conditionalFormatting sqref="F2:F69">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C24">
+  <conditionalFormatting sqref="C2:C26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="1"/>
@@ -1277,7 +1323,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F24">
+  <conditionalFormatting sqref="F2:F26">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"IN PROGRESS"</formula>
     </cfRule>

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AFBA69-B819-46DC-9E3A-7ADCEE1A0FA4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F26DB6-FD51-4C5B-81AC-B4480A228FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34777" windowHeight="18869" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
   <si>
     <t>Feature Name</t>
   </si>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1003,17 +1003,17 @@
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="6">
-        <v>5</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
+      <c r="C13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>36</v>
+      <c r="F13" s="7" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F26DB6-FD51-4C5B-81AC-B4480A228FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123410A-0F6C-45A8-9994-62AD897BF725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="40">
   <si>
     <t>Feature Name</t>
   </si>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375F148-E983-438C-8BD6-55F90DCCDEE1}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -985,17 +985,17 @@
       <c r="B12" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="2">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>36</v>
+      <c r="F12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Armpra/Timeplan.xlsx
+++ b/Armpra/Timeplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Projects\armpra\Armpra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9123410A-0F6C-45A8-9994-62AD897BF725}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B65F03-FC76-47A0-9396-6B019FBF23A0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19196" xr2:uid="{5BAF9660-1AAD-4E79-AA8B-F2C71C44E621}"/>
   </bookViews>
@@ -104,9 +104,6 @@
     <t>Sounds</t>
   </si>
   <si>
-    <t>Advertizing</t>
-  </si>
-  <si>
     <t>Random Level Generation</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Optimization Updates</t>
+  </si>
+  <si>
+    <t>Advertising</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -882,7 +882,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="3" t="b">
         <v>1</v>
@@ -911,7 +911,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>17</v>
@@ -929,7 +929,7 @@
     <row r="9" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16"/>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>17</v>
@@ -947,7 +947,7 @@
     <row r="10" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
       <c r="B10" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
@@ -983,7 +983,7 @@
     <row r="12" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>17</v>
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="b">
         <v>1</v>
@@ -1074,10 +1074,10 @@
     </row>
     <row r="17" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -1089,13 +1089,13 @@
         <v>16</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>4</v>
@@ -1107,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1137,7 +1137,7 @@
     <row r="21" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -1155,7 +1155,7 @@
     <row r="22" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1167,7 +1167,7 @@
     <row r="23" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
@@ -1185,7 +1185,7 @@
     <row r="24" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <v>2</v>
@@ -1194,16 +1194,16 @@
         <v>17</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1215,7 +1215,7 @@
     <row r="26" spans="1:6" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="17"/>
       <c r="B26" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>17</v>
